--- a/schedule_data_2019_6.xlsx
+++ b/schedule_data_2019_6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -373,57 +373,45 @@
     <t>X</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -517,28 +505,67 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '12.5']</t>
+  </si>
+  <si>
     <t>['13.0']</t>
   </si>
   <si>
+    <t>['12.5']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.5']</t>
+  </si>
+  <si>
     <t>['11.5', '12.5']</t>
   </si>
   <si>
-    <t>['12.5']</t>
-  </si>
-  <si>
-    <t>['13.5']</t>
+    <t>['12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.0']</t>
   </si>
   <si>
     <t>['12.0']</t>
   </si>
   <si>
-    <t>['11.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0']</t>
+    <t>['12.0', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '12.5', '13.5']</t>
   </si>
 </sst>
 </file>
@@ -1017,38 +1044,38 @@
         <v>117</v>
       </c>
       <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" t="s">
-        <v>129</v>
-      </c>
       <c r="Q2" t="s">
         <v>116</v>
       </c>
@@ -1056,20 +1083,20 @@
         <v>116</v>
       </c>
       <c r="S2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" t="s">
         <v>124</v>
       </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" t="s">
-        <v>122</v>
-      </c>
       <c r="X2" t="s">
         <v>116</v>
       </c>
@@ -1077,19 +1104,19 @@
         <v>116</v>
       </c>
       <c r="Z2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AC2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AD2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AE2" t="s">
         <v>116</v>
@@ -1115,13 +1142,13 @@
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
         <v>116</v>
@@ -1136,16 +1163,16 @@
         <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q3" t="s">
         <v>116</v>
@@ -1154,16 +1181,16 @@
         <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="U3" t="s">
         <v>123</v>
       </c>
       <c r="V3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W3" t="s">
         <v>123</v>
@@ -1178,16 +1205,16 @@
         <v>118</v>
       </c>
       <c r="AA3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" t="s">
-        <v>118</v>
-      </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE3" t="s">
         <v>116</v>
@@ -1213,13 +1240,13 @@
         <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -1231,19 +1258,19 @@
         <v>116</v>
       </c>
       <c r="L4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N4" t="s">
         <v>123</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q4" t="s">
         <v>116</v>
@@ -1255,16 +1282,16 @@
         <v>123</v>
       </c>
       <c r="T4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="X4" t="s">
         <v>116</v>
@@ -1273,19 +1300,19 @@
         <v>116</v>
       </c>
       <c r="Z4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AA4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE4" t="s">
         <v>116</v>
@@ -1311,76 +1338,76 @@
         <v>120</v>
       </c>
       <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" t="s">
         <v>128</v>
       </c>
-      <c r="G5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="T5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="U5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" t="s">
         <v>125</v>
-      </c>
-      <c r="M5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" t="s">
-        <v>118</v>
-      </c>
-      <c r="V5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>120</v>
       </c>
       <c r="AB5" t="s">
         <v>120</v>
       </c>
       <c r="AC5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AD5" t="s">
         <v>123</v>
@@ -1409,13 +1436,13 @@
         <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
         <v>116</v>
@@ -1433,10 +1460,10 @@
         <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
         <v>122</v>
@@ -1448,19 +1475,19 @@
         <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="V6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X6" t="s">
         <v>116</v>
@@ -1469,10 +1496,10 @@
         <v>116</v>
       </c>
       <c r="Z6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB6" t="s">
         <v>123</v>
@@ -1507,13 +1534,13 @@
         <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
         <v>116</v>
@@ -1525,19 +1552,19 @@
         <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O7" t="s">
         <v>117</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q7" t="s">
         <v>116</v>
@@ -1546,19 +1573,19 @@
         <v>116</v>
       </c>
       <c r="S7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="U7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="X7" t="s">
         <v>116</v>
@@ -1567,19 +1594,19 @@
         <v>116</v>
       </c>
       <c r="Z7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AB7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE7" t="s">
         <v>116</v>
@@ -1602,16 +1629,16 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
         <v>116</v>
@@ -1629,10 +1656,10 @@
         <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" t="s">
         <v>119</v>
@@ -1647,10 +1674,10 @@
         <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V8" t="s">
         <v>118</v>
@@ -1668,16 +1695,16 @@
         <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE8" t="s">
         <v>116</v>
@@ -1700,13 +1727,13 @@
         <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
@@ -1721,61 +1748,61 @@
         <v>116</v>
       </c>
       <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T9" t="s">
         <v>119</v>
       </c>
-      <c r="M9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="U9" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" t="s">
         <v>119</v>
       </c>
-      <c r="O9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB9" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" t="s">
-        <v>122</v>
-      </c>
-      <c r="U9" t="s">
-        <v>118</v>
-      </c>
-      <c r="V9" t="s">
-        <v>122</v>
-      </c>
-      <c r="W9" t="s">
-        <v>122</v>
-      </c>
-      <c r="X9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>118</v>
-      </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AD9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AE9" t="s">
         <v>116</v>
@@ -1801,13 +1828,13 @@
         <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
         <v>116</v>
@@ -1822,31 +1849,31 @@
         <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" t="s">
         <v>119</v>
       </c>
-      <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s">
-        <v>116</v>
-      </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
       <c r="T10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="U10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V10" t="s">
         <v>123</v>
@@ -1867,13 +1894,13 @@
         <v>123</v>
       </c>
       <c r="AB10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC10" t="s">
         <v>119</v>
       </c>
-      <c r="AC10" t="s">
-        <v>129</v>
-      </c>
       <c r="AD10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
         <v>116</v>
@@ -1896,10 +1923,10 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>122</v>
@@ -1917,7 +1944,7 @@
         <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
         <v>122</v>
@@ -1926,10 +1953,10 @@
         <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="s">
         <v>116</v>
@@ -1938,19 +1965,19 @@
         <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
         <v>116</v>
@@ -1959,19 +1986,19 @@
         <v>116</v>
       </c>
       <c r="Z11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AD11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
         <v>116</v>
@@ -2018,16 +2045,16 @@
         <v>123</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q12" t="s">
         <v>116</v>
@@ -2039,16 +2066,16 @@
         <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
         <v>116</v>
@@ -2060,16 +2087,16 @@
         <v>123</v>
       </c>
       <c r="AA12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AE12" t="s">
         <v>116</v>
@@ -2092,16 +2119,16 @@
         <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
         <v>116</v>
@@ -2116,16 +2143,16 @@
         <v>118</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13" t="s">
         <v>116</v>
@@ -2134,40 +2161,40 @@
         <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U13" t="s">
         <v>119</v>
       </c>
       <c r="V13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC13" t="s">
         <v>119</v>
       </c>
-      <c r="W13" t="s">
-        <v>129</v>
-      </c>
-      <c r="X13" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>122</v>
-      </c>
       <c r="AD13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AE13" t="s">
         <v>116</v>
@@ -2193,10 +2220,10 @@
         <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
@@ -2211,61 +2238,61 @@
         <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" t="s">
+        <v>116</v>
+      </c>
+      <c r="S14" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" t="s">
+        <v>122</v>
+      </c>
+      <c r="U14" t="s">
+        <v>122</v>
+      </c>
+      <c r="V14" t="s">
         <v>119</v>
       </c>
-      <c r="N14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>116</v>
-      </c>
-      <c r="R14" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA14" t="s">
         <v>117</v>
       </c>
-      <c r="T14" t="s">
-        <v>117</v>
-      </c>
-      <c r="U14" t="s">
-        <v>117</v>
-      </c>
-      <c r="V14" t="s">
-        <v>117</v>
-      </c>
-      <c r="W14" t="s">
-        <v>129</v>
-      </c>
-      <c r="X14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>129</v>
-      </c>
       <c r="AB14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE14" t="s">
         <v>116</v>
@@ -2291,10 +2318,10 @@
         <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>122</v>
@@ -2309,55 +2336,55 @@
         <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" t="s">
+        <v>122</v>
+      </c>
+      <c r="U15" t="s">
         <v>117</v>
       </c>
-      <c r="N15" t="s">
+      <c r="V15" t="s">
+        <v>122</v>
+      </c>
+      <c r="W15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB15" t="s">
         <v>117</v>
-      </c>
-      <c r="O15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" t="s">
-        <v>129</v>
-      </c>
-      <c r="W15" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>122</v>
       </c>
       <c r="AC15" t="s">
         <v>122</v>
@@ -2389,37 +2416,37 @@
         <v>125</v>
       </c>
       <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
         <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q16" t="s">
         <v>116</v>
@@ -2428,16 +2455,16 @@
         <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="V16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="W16" t="s">
         <v>123</v>
@@ -2452,16 +2479,16 @@
         <v>125</v>
       </c>
       <c r="AA16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AC16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE16" t="s">
         <v>116</v>
@@ -2484,16 +2511,16 @@
         <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
         <v>116</v>
@@ -2505,19 +2532,19 @@
         <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="s">
         <v>116</v>
@@ -2526,19 +2553,19 @@
         <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="W17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X17" t="s">
         <v>116</v>
@@ -2547,19 +2574,19 @@
         <v>116</v>
       </c>
       <c r="Z17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AA17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AE17" t="s">
         <v>116</v>
@@ -2582,16 +2609,16 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
         <v>116</v>
@@ -2603,19 +2630,19 @@
         <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" t="s">
         <v>116</v>
@@ -2624,20 +2651,20 @@
         <v>116</v>
       </c>
       <c r="S18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T18" t="s">
         <v>123</v>
       </c>
       <c r="U18" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18" t="s">
         <v>119</v>
       </c>
-      <c r="V18" t="s">
-        <v>127</v>
-      </c>
-      <c r="W18" t="s">
-        <v>128</v>
-      </c>
       <c r="X18" t="s">
         <v>116</v>
       </c>
@@ -2648,16 +2675,16 @@
         <v>121</v>
       </c>
       <c r="AA18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AC18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AE18" t="s">
         <v>116</v>
@@ -2680,55 +2707,55 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" t="s">
+        <v>122</v>
+      </c>
+      <c r="U19" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" t="s">
-        <v>122</v>
-      </c>
-      <c r="T19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>129</v>
       </c>
       <c r="V19" t="s">
         <v>122</v>
@@ -2743,13 +2770,13 @@
         <v>116</v>
       </c>
       <c r="Z19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AC19" t="s">
         <v>123</v>
@@ -2778,40 +2805,40 @@
         <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
       </c>
       <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" t="s">
         <v>119</v>
       </c>
-      <c r="H20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" t="s">
-        <v>121</v>
-      </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q20" t="s">
         <v>116</v>
@@ -2820,19 +2847,19 @@
         <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="V20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="X20" t="s">
         <v>116</v>
@@ -2841,19 +2868,19 @@
         <v>116</v>
       </c>
       <c r="Z20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AB20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AD20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE20" t="s">
         <v>116</v>
@@ -2876,13 +2903,13 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
         <v>119</v>
@@ -2900,16 +2927,16 @@
         <v>123</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
         <v>119</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q21" t="s">
         <v>116</v>
@@ -2918,19 +2945,19 @@
         <v>116</v>
       </c>
       <c r="S21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X21" t="s">
         <v>116</v>
@@ -2939,19 +2966,19 @@
         <v>116</v>
       </c>
       <c r="Z21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
         <v>121</v>
       </c>
       <c r="AB21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
         <v>116</v>
@@ -2974,73 +3001,73 @@
         <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="s">
-        <v>129</v>
-      </c>
       <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" t="s">
+        <v>117</v>
+      </c>
+      <c r="U22" t="s">
+        <v>124</v>
+      </c>
+      <c r="V22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W22" t="s">
+        <v>124</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA22" t="s">
         <v>119</v>
-      </c>
-      <c r="I22" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>116</v>
-      </c>
-      <c r="R22" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" t="s">
-        <v>119</v>
-      </c>
-      <c r="T22" t="s">
-        <v>119</v>
-      </c>
-      <c r="U22" t="s">
-        <v>119</v>
-      </c>
-      <c r="V22" t="s">
-        <v>129</v>
-      </c>
-      <c r="W22" t="s">
-        <v>119</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>122</v>
       </c>
       <c r="AB22" t="s">
         <v>123</v>
@@ -3072,16 +3099,16 @@
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
         <v>116</v>
@@ -3093,19 +3120,19 @@
         <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
         <v>116</v>
@@ -3114,10 +3141,10 @@
         <v>116</v>
       </c>
       <c r="S23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="U23" t="s">
         <v>123</v>
@@ -3126,7 +3153,7 @@
         <v>117</v>
       </c>
       <c r="W23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="X23" t="s">
         <v>116</v>
@@ -3135,19 +3162,19 @@
         <v>116</v>
       </c>
       <c r="Z23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AC23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE23" t="s">
         <v>116</v>
@@ -3170,16 +3197,16 @@
         <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>116</v>
@@ -3191,16 +3218,16 @@
         <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P24" t="s">
         <v>123</v>
@@ -3212,19 +3239,19 @@
         <v>116</v>
       </c>
       <c r="S24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="U24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X24" t="s">
         <v>116</v>
@@ -3233,19 +3260,19 @@
         <v>116</v>
       </c>
       <c r="Z24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AB24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AC24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AE24" t="s">
         <v>116</v>
@@ -3268,16 +3295,16 @@
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
         <v>116</v>
@@ -3292,16 +3319,16 @@
         <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q25" t="s">
         <v>116</v>
@@ -3310,19 +3337,19 @@
         <v>116</v>
       </c>
       <c r="S25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="T25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X25" t="s">
         <v>116</v>
@@ -3334,16 +3361,16 @@
         <v>121</v>
       </c>
       <c r="AA25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD25" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AE25" t="s">
         <v>116</v>
@@ -3366,16 +3393,16 @@
         <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
         <v>116</v>
@@ -3387,19 +3414,19 @@
         <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q26" t="s">
         <v>116</v>
@@ -3408,19 +3435,19 @@
         <v>116</v>
       </c>
       <c r="S26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="U26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="V26" t="s">
         <v>123</v>
       </c>
       <c r="W26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X26" t="s">
         <v>116</v>
@@ -3429,19 +3456,19 @@
         <v>116</v>
       </c>
       <c r="Z26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AA26" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AB26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE26" t="s">
         <v>116</v>
@@ -3464,13 +3491,13 @@
         <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
         <v>123</v>
@@ -3485,40 +3512,40 @@
         <v>116</v>
       </c>
       <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" t="s">
         <v>119</v>
       </c>
-      <c r="M27" t="s">
-        <v>119</v>
-      </c>
-      <c r="N27" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" t="s">
-        <v>129</v>
-      </c>
-      <c r="P27" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27" t="s">
-        <v>121</v>
-      </c>
       <c r="T27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="X27" t="s">
         <v>116</v>
@@ -3527,19 +3554,19 @@
         <v>116</v>
       </c>
       <c r="Z27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AB27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AE27" t="s">
         <v>116</v>
@@ -3562,16 +3589,16 @@
         <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
         <v>116</v>
@@ -3583,16 +3610,16 @@
         <v>116</v>
       </c>
       <c r="L28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P28" t="s">
         <v>119</v>
@@ -3604,19 +3631,19 @@
         <v>116</v>
       </c>
       <c r="S28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V28" t="s">
         <v>119</v>
       </c>
       <c r="W28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X28" t="s">
         <v>116</v>
@@ -3625,16 +3652,16 @@
         <v>116</v>
       </c>
       <c r="Z28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AC28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AD28" t="s">
         <v>119</v>
@@ -3660,16 +3687,16 @@
         <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>116</v>
@@ -3681,7 +3708,7 @@
         <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" t="s">
         <v>123</v>
@@ -3690,10 +3717,10 @@
         <v>118</v>
       </c>
       <c r="O29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q29" t="s">
         <v>116</v>
@@ -3702,19 +3729,19 @@
         <v>116</v>
       </c>
       <c r="S29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="T29" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="U29" t="s">
         <v>123</v>
       </c>
       <c r="V29" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W29" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X29" t="s">
         <v>116</v>
@@ -3723,19 +3750,19 @@
         <v>116</v>
       </c>
       <c r="Z29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AA29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AB29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AE29" t="s">
         <v>116</v>
@@ -3758,16 +3785,16 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
         <v>116</v>
@@ -3779,19 +3806,19 @@
         <v>116</v>
       </c>
       <c r="L30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q30" t="s">
         <v>116</v>
@@ -3806,13 +3833,13 @@
         <v>123</v>
       </c>
       <c r="U30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X30" t="s">
         <v>116</v>
@@ -3821,19 +3848,19 @@
         <v>116</v>
       </c>
       <c r="Z30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AB30" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AC30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AE30" t="s">
         <v>116</v>
@@ -3859,13 +3886,13 @@
         <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
         <v>116</v>
@@ -3877,19 +3904,19 @@
         <v>116</v>
       </c>
       <c r="L31" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q31" t="s">
         <v>116</v>
@@ -3901,37 +3928,37 @@
         <v>120</v>
       </c>
       <c r="T31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U31" t="s">
+        <v>119</v>
+      </c>
+      <c r="V31" t="s">
+        <v>120</v>
+      </c>
+      <c r="W31" t="s">
+        <v>127</v>
+      </c>
+      <c r="X31" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z31" t="s">
         <v>129</v>
       </c>
-      <c r="U31" t="s">
-        <v>120</v>
-      </c>
-      <c r="V31" t="s">
-        <v>129</v>
-      </c>
-      <c r="W31" t="s">
-        <v>126</v>
-      </c>
-      <c r="X31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>118</v>
-      </c>
       <c r="AA31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB31" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AC31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AE31" t="s">
         <v>116</v>
@@ -3954,16 +3981,16 @@
         <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
         <v>116</v>
@@ -3975,19 +4002,19 @@
         <v>116</v>
       </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q32" t="s">
         <v>116</v>
@@ -3999,16 +4026,16 @@
         <v>123</v>
       </c>
       <c r="T32" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="V32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X32" t="s">
         <v>116</v>
@@ -4017,19 +4044,19 @@
         <v>116</v>
       </c>
       <c r="Z32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA32" t="s">
         <v>122</v>
       </c>
       <c r="AB32" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AC32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AD32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE32" t="s">
         <v>116</v>
@@ -4052,16 +4079,16 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
         <v>116</v>
@@ -4073,19 +4100,19 @@
         <v>116</v>
       </c>
       <c r="L33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q33" t="s">
         <v>116</v>
@@ -4097,16 +4124,16 @@
         <v>123</v>
       </c>
       <c r="T33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V33" t="s">
         <v>123</v>
       </c>
       <c r="W33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X33" t="s">
         <v>116</v>
@@ -4115,19 +4142,19 @@
         <v>116</v>
       </c>
       <c r="Z33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AE33" t="s">
         <v>116</v>
@@ -4156,10 +4183,10 @@
         <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
         <v>116</v>
@@ -4171,19 +4198,19 @@
         <v>116</v>
       </c>
       <c r="L34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q34" t="s">
         <v>116</v>
@@ -4192,40 +4219,40 @@
         <v>116</v>
       </c>
       <c r="S34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T34" t="s">
+        <v>121</v>
+      </c>
+      <c r="U34" t="s">
+        <v>121</v>
+      </c>
+      <c r="V34" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" t="s">
+        <v>121</v>
+      </c>
+      <c r="X34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC34" t="s">
         <v>119</v>
       </c>
-      <c r="U34" t="s">
-        <v>119</v>
-      </c>
-      <c r="V34" t="s">
-        <v>119</v>
-      </c>
-      <c r="W34" t="s">
-        <v>119</v>
-      </c>
-      <c r="X34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>117</v>
-      </c>
       <c r="AD34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AE34" t="s">
         <v>116</v>
@@ -4248,16 +4275,16 @@
         <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
         <v>116</v>
@@ -4269,7 +4296,7 @@
         <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M35" t="s">
         <v>121</v>
@@ -4278,7 +4305,7 @@
         <v>121</v>
       </c>
       <c r="O35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P35" t="s">
         <v>121</v>
@@ -4290,19 +4317,19 @@
         <v>116</v>
       </c>
       <c r="S35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="T35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X35" t="s">
         <v>116</v>
@@ -4311,19 +4338,19 @@
         <v>116</v>
       </c>
       <c r="Z35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AA35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AB35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AC35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AE35" t="s">
         <v>116</v>
@@ -4346,13 +4373,13 @@
         <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -4370,58 +4397,58 @@
         <v>123</v>
       </c>
       <c r="M36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T36" t="s">
         <v>125</v>
       </c>
-      <c r="N36" t="s">
-        <v>118</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="U36" t="s">
         <v>125</v>
       </c>
-      <c r="P36" t="s">
+      <c r="V36" t="s">
+        <v>125</v>
+      </c>
+      <c r="W36" t="s">
+        <v>125</v>
+      </c>
+      <c r="X36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z36" t="s">
         <v>127</v>
       </c>
-      <c r="Q36" t="s">
-        <v>116</v>
-      </c>
-      <c r="R36" t="s">
-        <v>116</v>
-      </c>
-      <c r="S36" t="s">
-        <v>131</v>
-      </c>
-      <c r="T36" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36" t="s">
-        <v>131</v>
-      </c>
-      <c r="V36" t="s">
-        <v>131</v>
-      </c>
-      <c r="W36" t="s">
-        <v>127</v>
-      </c>
-      <c r="X36" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>126</v>
-      </c>
       <c r="AA36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AB36" t="s">
         <v>123</v>
       </c>
       <c r="AC36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AD36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE36" t="s">
         <v>116</v>
@@ -4444,16 +4471,16 @@
         <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
         <v>116</v>
@@ -4465,16 +4492,16 @@
         <v>116</v>
       </c>
       <c r="L37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P37" t="s">
         <v>119</v>
@@ -4489,13 +4516,13 @@
         <v>121</v>
       </c>
       <c r="T37" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U37" t="s">
         <v>121</v>
       </c>
       <c r="V37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W37" t="s">
         <v>121</v>
@@ -4507,19 +4534,19 @@
         <v>116</v>
       </c>
       <c r="Z37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC37" t="s">
         <v>119</v>
       </c>
-      <c r="AA37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>129</v>
-      </c>
       <c r="AD37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE37" t="s">
         <v>116</v>
@@ -4542,7 +4569,7 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
         <v>121</v>
@@ -4551,7 +4578,7 @@
         <v>121</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I38" t="s">
         <v>116</v>
@@ -4563,19 +4590,19 @@
         <v>116</v>
       </c>
       <c r="L38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" t="s">
         <v>117</v>
-      </c>
-      <c r="M38" t="s">
-        <v>129</v>
       </c>
       <c r="N38" t="s">
         <v>123</v>
       </c>
       <c r="O38" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q38" t="s">
         <v>116</v>
@@ -4584,37 +4611,37 @@
         <v>116</v>
       </c>
       <c r="S38" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="T38" t="s">
         <v>123</v>
       </c>
       <c r="U38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V38" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" t="s">
+        <v>121</v>
+      </c>
+      <c r="X38" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
-      <c r="W38" t="s">
-        <v>119</v>
-      </c>
-      <c r="X38" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>118</v>
-      </c>
       <c r="AA38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AB38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD38" t="s">
         <v>123</v>
@@ -4640,16 +4667,16 @@
         <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I39" t="s">
         <v>116</v>
@@ -4661,61 +4688,61 @@
         <v>116</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M39" t="s">
         <v>119</v>
       </c>
       <c r="N39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O39" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" t="s">
+        <v>117</v>
+      </c>
+      <c r="U39" t="s">
+        <v>122</v>
+      </c>
+      <c r="V39" t="s">
+        <v>122</v>
+      </c>
+      <c r="W39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC39" t="s">
         <v>119</v>
       </c>
-      <c r="O39" t="s">
-        <v>119</v>
-      </c>
-      <c r="P39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" t="s">
-        <v>116</v>
-      </c>
-      <c r="S39" t="s">
-        <v>117</v>
-      </c>
-      <c r="T39" t="s">
-        <v>132</v>
-      </c>
-      <c r="U39" t="s">
-        <v>129</v>
-      </c>
-      <c r="V39" t="s">
-        <v>117</v>
-      </c>
-      <c r="W39" t="s">
-        <v>117</v>
-      </c>
-      <c r="X39" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>121</v>
-      </c>
       <c r="AD39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AE39" t="s">
         <v>116</v>
@@ -4738,13 +4765,13 @@
         <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H40" t="s">
         <v>119</v>
@@ -4759,19 +4786,19 @@
         <v>116</v>
       </c>
       <c r="L40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q40" t="s">
         <v>116</v>
@@ -4780,40 +4807,40 @@
         <v>116</v>
       </c>
       <c r="S40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T40" t="s">
         <v>119</v>
       </c>
       <c r="U40" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" t="s">
+        <v>122</v>
+      </c>
+      <c r="W40" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z40" t="s">
         <v>119</v>
       </c>
-      <c r="V40" t="s">
-        <v>129</v>
-      </c>
-      <c r="W40" t="s">
-        <v>119</v>
-      </c>
-      <c r="X40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>117</v>
-      </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AB40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AC40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AE40" t="s">
         <v>116</v>
@@ -4836,40 +4863,40 @@
         <v>116</v>
       </c>
       <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41" t="s">
         <v>117</v>
       </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" t="s">
-        <v>116</v>
-      </c>
-      <c r="L41" t="s">
-        <v>118</v>
-      </c>
-      <c r="M41" t="s">
-        <v>133</v>
-      </c>
-      <c r="N41" t="s">
-        <v>121</v>
-      </c>
       <c r="O41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q41" t="s">
         <v>116</v>
@@ -4878,40 +4905,40 @@
         <v>116</v>
       </c>
       <c r="S41" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="T41" t="s">
         <v>119</v>
       </c>
       <c r="U41" t="s">
+        <v>124</v>
+      </c>
+      <c r="V41" t="s">
+        <v>118</v>
+      </c>
+      <c r="W41" t="s">
+        <v>118</v>
+      </c>
+      <c r="X41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z41" t="s">
         <v>119</v>
       </c>
-      <c r="V41" t="s">
-        <v>119</v>
-      </c>
-      <c r="W41" t="s">
-        <v>119</v>
-      </c>
-      <c r="X41" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>118</v>
-      </c>
       <c r="AA41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AB41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AC41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE41" t="s">
         <v>116</v>
@@ -4934,16 +4961,16 @@
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
         <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
         <v>116</v>
@@ -4955,19 +4982,19 @@
         <v>116</v>
       </c>
       <c r="L42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q42" t="s">
         <v>116</v>
@@ -4976,19 +5003,19 @@
         <v>116</v>
       </c>
       <c r="S42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V42" t="s">
         <v>119</v>
       </c>
       <c r="W42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -5000,16 +5027,16 @@
         <v>119</v>
       </c>
       <c r="AA42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD42" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AE42" t="s">
         <v>116</v>
@@ -5032,82 +5059,82 @@
         <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>119</v>
       </c>
       <c r="G43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" t="s">
+        <v>116</v>
+      </c>
+      <c r="S43" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" t="s">
+        <v>122</v>
+      </c>
+      <c r="V43" t="s">
         <v>119</v>
       </c>
-      <c r="H43" t="s">
+      <c r="W43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z43" t="s">
         <v>119</v>
       </c>
-      <c r="I43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N43" t="s">
-        <v>122</v>
-      </c>
-      <c r="O43" t="s">
-        <v>122</v>
-      </c>
-      <c r="P43" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S43" t="s">
-        <v>119</v>
-      </c>
-      <c r="T43" t="s">
-        <v>119</v>
-      </c>
-      <c r="U43" t="s">
-        <v>119</v>
-      </c>
-      <c r="V43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W43" t="s">
-        <v>119</v>
-      </c>
-      <c r="X43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>132</v>
-      </c>
       <c r="AA43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AB43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AC43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD43" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AE43" t="s">
         <v>116</v>
@@ -5131,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5226,7 +5253,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -5238,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>116</v>
@@ -5256,19 +5283,19 @@
         <v>116</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
         <v>116</v>
@@ -5280,37 +5307,37 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
       <c r="AB2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="s">
         <v>116</v>
@@ -5321,7 +5348,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -5333,13 +5360,13 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>116</v>
@@ -5351,19 +5378,19 @@
         <v>116</v>
       </c>
       <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
       <c r="M3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
         <v>116</v>
@@ -5375,16 +5402,16 @@
         <v>6</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>9</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
         <v>116</v>
@@ -5396,16 +5423,16 @@
         <v>6</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="s">
         <v>116</v>
@@ -5416,7 +5443,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -5428,13 +5455,13 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>116</v>
@@ -5446,19 +5473,19 @@
         <v>116</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P4" t="s">
         <v>116</v>
@@ -5470,16 +5497,16 @@
         <v>3</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W4" t="s">
         <v>116</v>
@@ -5491,16 +5518,16 @@
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="s">
         <v>116</v>
@@ -5511,7 +5538,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -5523,37 +5550,37 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
         <v>116</v>
@@ -5565,16 +5592,16 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W5" t="s">
         <v>116</v>
@@ -5586,16 +5613,16 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="s">
         <v>116</v>
@@ -5606,7 +5633,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -5618,37 +5645,37 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
       <c r="O6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
         <v>116</v>
@@ -5660,16 +5687,16 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T6">
         <v>6</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W6" t="s">
         <v>116</v>
@@ -5681,16 +5708,16 @@
         <v>3</v>
       </c>
       <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
-      </c>
-      <c r="AA6">
-        <v>6</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
       </c>
       <c r="AD6" t="s">
         <v>116</v>
@@ -5701,7 +5728,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -5710,10 +5737,10 @@
         <v>116</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5731,7 +5758,7 @@
         <v>116</v>
       </c>
       <c r="K7">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -5740,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
         <v>116</v>
@@ -5752,19 +5779,19 @@
         <v>116</v>
       </c>
       <c r="R7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="S7">
         <v>2</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U7">
         <v>-1</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W7" t="s">
         <v>116</v>
@@ -5773,19 +5800,19 @@
         <v>116</v>
       </c>
       <c r="Y7">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="Z7">
         <v>4</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="s">
         <v>116</v>
@@ -5796,7 +5823,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -5805,79 +5832,79 @@
         <v>116</v>
       </c>
       <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
         <v>-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
+        <v>-5</v>
+      </c>
+      <c r="L8">
+        <v>-2</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8">
+        <v>-2</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>116</v>
+      </c>
+      <c r="X8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8">
+        <v>-4</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>-3</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8" t="s">
-        <v>116</v>
-      </c>
-      <c r="X8" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
       <c r="AB8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -5891,7 +5918,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -5900,16 +5927,16 @@
         <v>116</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>116</v>
@@ -5924,37 +5951,37 @@
         <v>-3</v>
       </c>
       <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9">
+        <v>-2</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
-      </c>
       <c r="V9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W9" t="s">
         <v>116</v>
@@ -5963,16 +5990,16 @@
         <v>116</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -5986,7 +6013,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -5995,13 +6022,13 @@
         <v>116</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6016,19 +6043,19 @@
         <v>116</v>
       </c>
       <c r="K10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>116</v>
@@ -6043,34 +6070,34 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
       <c r="AA10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="s">
         <v>116</v>
@@ -6081,7 +6108,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -6090,37 +6117,37 @@
         <v>116</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
       <c r="M11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -6135,16 +6162,16 @@
         <v>-2</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="W11" t="s">
         <v>116</v>
@@ -6156,16 +6183,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD11" t="s">
         <v>116</v>
@@ -6176,7 +6203,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -6185,82 +6212,82 @@
         <v>116</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
+      <c r="Z12">
         <v>7</v>
       </c>
-      <c r="P12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>116</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12" t="s">
-        <v>116</v>
-      </c>
-      <c r="X12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
       <c r="AA12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="s">
         <v>116</v>
@@ -6271,7 +6298,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -6310,7 +6337,7 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -6366,7 +6393,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -6405,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -6461,7 +6488,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -6500,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="N15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15">
         <v>16</v>
@@ -6556,7 +6583,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -6595,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O16">
         <v>13</v>
@@ -6651,7 +6678,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -6660,10 +6687,10 @@
         <v>116</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6681,7 +6708,7 @@
         <v>116</v>
       </c>
       <c r="K17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -6690,11 +6717,11 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
         <v>6</v>
       </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
       <c r="P17" t="s">
         <v>116</v>
       </c>
@@ -6702,19 +6729,19 @@
         <v>116</v>
       </c>
       <c r="R17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U17">
         <v>3</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W17" t="s">
         <v>116</v>
@@ -6723,19 +6750,19 @@
         <v>116</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>3</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>4</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD17" t="s">
         <v>116</v>
@@ -6746,7 +6773,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -6755,10 +6782,10 @@
         <v>116</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -6776,7 +6803,7 @@
         <v>116</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -6785,10 +6812,10 @@
         <v>7</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P18" t="s">
         <v>116</v>
@@ -6797,19 +6824,19 @@
         <v>116</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <v>8</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>9</v>
       </c>
       <c r="V18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W18" t="s">
         <v>116</v>
@@ -6818,19 +6845,19 @@
         <v>116</v>
       </c>
       <c r="Y18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z18">
         <v>10</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="s">
         <v>116</v>
@@ -6841,7 +6868,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -6850,16 +6877,16 @@
         <v>116</v>
       </c>
       <c r="D19">
+        <v>-6</v>
+      </c>
+      <c r="E19">
         <v>-5</v>
       </c>
-      <c r="E19">
-        <v>-2</v>
-      </c>
       <c r="F19">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="s">
         <v>116</v>
@@ -6871,20 +6898,20 @@
         <v>116</v>
       </c>
       <c r="K19">
+        <v>-8</v>
+      </c>
+      <c r="L19">
+        <v>-6</v>
+      </c>
+      <c r="M19">
+        <v>-6</v>
+      </c>
+      <c r="N19">
+        <v>-6</v>
+      </c>
+      <c r="O19">
         <v>-4</v>
       </c>
-      <c r="L19">
-        <v>-3</v>
-      </c>
-      <c r="M19">
-        <v>-5</v>
-      </c>
-      <c r="N19">
-        <v>-4</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19" t="s">
         <v>116</v>
       </c>
@@ -6892,10 +6919,10 @@
         <v>116</v>
       </c>
       <c r="R19">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="T19">
         <v>-5</v>
@@ -6904,7 +6931,7 @@
         <v>-4</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="W19" t="s">
         <v>116</v>
@@ -6913,19 +6940,19 @@
         <v>116</v>
       </c>
       <c r="Y19">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="Z19">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AA19">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="AB19">
         <v>-4</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="s">
         <v>116</v>
@@ -6936,7 +6963,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -6945,16 +6972,16 @@
         <v>116</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>116</v>
@@ -6966,19 +6993,19 @@
         <v>116</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P20" t="s">
         <v>116</v>
@@ -6987,10 +7014,10 @@
         <v>116</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -6999,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="W20" t="s">
         <v>116</v>
@@ -7008,19 +7035,19 @@
         <v>116</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AD20" t="s">
         <v>116</v>
@@ -7031,7 +7058,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -7040,10 +7067,10 @@
         <v>116</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -7061,7 +7088,7 @@
         <v>116</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -7070,10 +7097,10 @@
         <v>-2</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
         <v>116</v>
@@ -7082,19 +7109,19 @@
         <v>116</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W21" t="s">
         <v>116</v>
@@ -7103,19 +7130,19 @@
         <v>116</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD21" t="s">
         <v>116</v>
@@ -7126,7 +7153,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
@@ -7135,10 +7162,10 @@
         <v>116</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -7156,7 +7183,7 @@
         <v>116</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -7165,10 +7192,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
         <v>116</v>
@@ -7177,19 +7204,19 @@
         <v>116</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22">
         <v>2</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W22" t="s">
         <v>116</v>
@@ -7198,19 +7225,19 @@
         <v>116</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>2</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD22" t="s">
         <v>116</v>
@@ -7221,7 +7248,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>116</v>
@@ -7230,10 +7257,10 @@
         <v>116</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7251,7 +7278,7 @@
         <v>116</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -7260,11 +7287,11 @@
         <v>-1</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
       <c r="P23" t="s">
         <v>116</v>
       </c>
@@ -7272,19 +7299,19 @@
         <v>116</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W23" t="s">
         <v>116</v>
@@ -7293,19 +7320,19 @@
         <v>116</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB23">
         <v>3</v>
       </c>
       <c r="AC23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="s">
         <v>116</v>
@@ -7316,7 +7343,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
@@ -7325,10 +7352,10 @@
         <v>116</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7346,7 +7373,7 @@
         <v>116</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -7355,10 +7382,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>116</v>
@@ -7367,19 +7394,19 @@
         <v>116</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W24" t="s">
         <v>116</v>
@@ -7388,19 +7415,19 @@
         <v>116</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="s">
         <v>116</v>
@@ -7411,7 +7438,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>116</v>
@@ -7420,10 +7447,10 @@
         <v>116</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -7441,7 +7468,7 @@
         <v>116</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -7450,10 +7477,10 @@
         <v>2</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="s">
         <v>116</v>
@@ -7462,19 +7489,19 @@
         <v>116</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>2</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25">
         <v>3</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W25" t="s">
         <v>116</v>
@@ -7483,19 +7510,19 @@
         <v>116</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>2</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>3</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="s">
         <v>116</v>
@@ -7519,79 +7546,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -7614,52 +7641,52 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -7671,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -7697,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7730,11 +7757,11 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -7751,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -7777,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -7810,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7831,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -7890,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7911,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -7919,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7928,58 +7955,58 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -7991,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -8017,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8050,11 +8077,11 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -8071,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -8097,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -8130,10 +8157,10 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -8151,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -8210,13 +8237,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -8225,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -8290,10 +8317,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -8311,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -8334,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8349,49 +8376,49 @@
         <v>2</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="X11">
         <v>1</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -8417,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -8450,10 +8477,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -8471,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -8494,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8524,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -8536,13 +8563,13 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -8660,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -8690,28 +8717,28 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -8734,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8764,22 +8791,22 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -8791,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -8817,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -8850,10 +8877,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -8871,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -8894,64 +8921,64 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>5</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -9066,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -9090,16 +9117,16 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -9111,15 +9138,15 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9128,70 +9155,70 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>111</v>
+      </c>
+      <c r="T21">
+        <v>37</v>
+      </c>
+      <c r="U21">
+        <v>17</v>
+      </c>
+      <c r="V21">
+        <v>11</v>
+      </c>
+      <c r="W21">
         <v>4</v>
       </c>
-      <c r="K21">
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>59</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
-        <v>139</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -9209,7 +9236,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9217,7 +9244,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.04191616766467066</v>
+        <v>0.0499001996007984</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9225,7 +9252,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.004484304932735426</v>
+        <v>0.02017937219730942</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9233,7 +9260,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.008368200836820083</v>
+        <v>0.01464435146443515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9241,7 +9268,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.009324009324009324</v>
+        <v>0.01165501165501166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9249,7 +9276,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0499001996007984</v>
+        <v>0.0718562874251497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9257,7 +9284,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006726457399103139</v>
+        <v>0.02466367713004484</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9265,7 +9292,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01673640167364017</v>
+        <v>0.02301255230125523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9273,7 +9300,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.009324009324009324</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9281,7 +9308,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0138568129330254</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9289,7 +9316,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.03792415169660679</v>
+        <v>0.0658682634730539</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9297,7 +9324,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.02242152466367713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9321,7 +9348,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002309468822170901</v>
+        <v>0.05311778290993072</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9329,7 +9356,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.03193612774451098</v>
+        <v>0.05189620758483034</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9337,7 +9364,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.004484304932735426</v>
+        <v>0.02242152466367713</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9345,7 +9372,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.02092050209205021</v>
+        <v>0.03765690376569038</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9361,7 +9388,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.002309468822170901</v>
+        <v>0.02771362586605081</v>
       </c>
     </row>
   </sheetData>
@@ -9379,20 +9406,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.003883495145631068</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9400,7 +9427,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9408,15 +9435,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001988071570576541</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9424,55 +9451,55 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>0.07531380753138076</v>
+        <v>0.06903765690376569</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8">
-        <v>0.02108433734939759</v>
+        <v>0.08132530120481928</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9">
-        <v>0.009404388714733543</v>
+        <v>0.02507836990595611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10">
-        <v>0.01104972375690608</v>
+        <v>0.002762430939226519</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>0.01121076233183856</v>
+        <v>0.0179372197309417</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12">
-        <v>0.001956947162426614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9480,7 +9507,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9488,7 +9515,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9496,7 +9523,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9504,15 +9531,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17">
-        <v>0.02277904328018223</v>
+        <v>0.01594533029612756</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9520,58 +9547,58 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19">
-        <v>0.2027491408934708</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.1705069124423963</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <v>0.03589743589743589</v>
+        <v>0.08717948717948718</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22">
-        <v>0.02285714285714286</v>
+        <v>0.06285714285714286</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23">
-        <v>0.01807228915662651</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -9595,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9609,7 +9636,7 @@
         <v>74</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -9623,7 +9650,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -9637,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -9651,10 +9678,10 @@
         <v>77</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9665,7 +9692,7 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -9679,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -9693,7 +9720,7 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -9707,7 +9734,7 @@
         <v>81</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -9721,7 +9748,7 @@
         <v>82</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -9735,7 +9762,7 @@
         <v>83</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -9749,7 +9776,7 @@
         <v>84</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -9763,7 +9790,7 @@
         <v>85</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -9777,7 +9804,7 @@
         <v>86</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -9791,7 +9818,7 @@
         <v>87</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -9808,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9819,7 +9846,7 @@
         <v>89</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9833,7 +9860,7 @@
         <v>90</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -9847,7 +9874,7 @@
         <v>91</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -9861,7 +9888,7 @@
         <v>92</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -9875,7 +9902,7 @@
         <v>93</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -9889,7 +9916,7 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -9903,7 +9930,7 @@
         <v>95</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -9917,10 +9944,10 @@
         <v>96</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9931,7 +9958,7 @@
         <v>97</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -9945,7 +9972,7 @@
         <v>98</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -9959,7 +9986,7 @@
         <v>99</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -9973,7 +10000,7 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -9987,7 +10014,7 @@
         <v>101</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -10001,7 +10028,7 @@
         <v>102</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -10015,10 +10042,10 @@
         <v>103</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10029,7 +10056,7 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -10043,10 +10070,10 @@
         <v>105</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10057,7 +10084,7 @@
         <v>106</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -10071,7 +10098,7 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -10085,10 +10112,10 @@
         <v>108</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10099,7 +10126,7 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -10113,7 +10140,7 @@
         <v>110</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -10127,7 +10154,7 @@
         <v>111</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -10141,7 +10168,7 @@
         <v>112</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -10155,7 +10182,7 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -10169,7 +10196,7 @@
         <v>114</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -10183,7 +10210,7 @@
         <v>115</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -10224,19 +10251,19 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
       <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
         <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10244,19 +10271,19 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10264,19 +10291,19 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10284,19 +10311,19 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10304,19 +10331,19 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10324,19 +10351,19 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
         <v>169</v>
       </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10344,19 +10371,19 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10364,19 +10391,19 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10384,19 +10411,19 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10404,19 +10431,19 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
         <v>164</v>
       </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" t="s">
-        <v>168</v>
-      </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10424,19 +10451,19 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
         <v>168</v>
       </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10444,19 +10471,19 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10464,7 +10491,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
@@ -10473,10 +10500,10 @@
         <v>166</v>
       </c>
       <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
         <v>165</v>
-      </c>
-      <c r="F14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10484,19 +10511,19 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10504,19 +10531,19 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
         <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10524,19 +10551,19 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10544,19 +10571,19 @@
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10564,19 +10591,19 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10584,19 +10611,19 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10604,19 +10631,19 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10624,19 +10651,19 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
         <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10644,19 +10671,19 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
         <v>171</v>
       </c>
-      <c r="D23" t="s">
-        <v>169</v>
-      </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10664,19 +10691,19 @@
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10684,19 +10711,19 @@
         <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10704,19 +10731,19 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10724,19 +10751,19 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10744,19 +10771,19 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10764,19 +10791,19 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
         <v>172</v>
       </c>
-      <c r="D29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10784,19 +10811,19 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
         <v>164</v>
       </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" t="s">
-        <v>167</v>
-      </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10804,19 +10831,19 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10824,19 +10851,19 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" t="s">
-        <v>166</v>
-      </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10844,19 +10871,19 @@
         <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10864,19 +10891,19 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10884,19 +10911,19 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
         <v>169</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10904,19 +10931,19 @@
         <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10924,19 +10951,19 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10944,19 +10971,19 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10964,19 +10991,19 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
         <v>167</v>
       </c>
-      <c r="E39" t="s">
-        <v>165</v>
-      </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10984,19 +11011,19 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
         <v>169</v>
       </c>
-      <c r="E40" t="s">
-        <v>167</v>
-      </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -11004,19 +11031,19 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -11024,19 +11051,19 @@
         <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -11044,19 +11071,19 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="D43" t="s">
-        <v>169</v>
-      </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_data_2019_6.xlsx
+++ b/schedule_data_2019_6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -373,36 +373,36 @@
     <t>X</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>W6</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>O</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -505,67 +505,64 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['11.5', '12.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5']</t>
+  </si>
+  <si>
+    <t>['12.0']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.5']</t>
+  </si>
+  <si>
     <t>['12.5', '13.0']</t>
   </si>
   <si>
-    <t>['11.5', '12.0']</t>
+    <t>['11.5', '12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.5']</t>
+  </si>
+  <si>
+    <t>['13.0', '13.5']</t>
   </si>
   <si>
     <t>['11.5', '12.0', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['13.0']</t>
-  </si>
-  <si>
-    <t>['12.5']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5']</t>
-  </si>
-  <si>
-    <t>['12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.0']</t>
-  </si>
-  <si>
-    <t>['12.0', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['12.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['12.0', '12.5', '13.5']</t>
   </si>
 </sst>
 </file>
@@ -1044,58 +1041,58 @@
         <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" t="s">
-        <v>119</v>
-      </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X2" t="s">
         <v>116</v>
@@ -1104,19 +1101,19 @@
         <v>116</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE2" t="s">
         <v>116</v>
@@ -1142,13 +1139,13 @@
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>116</v>
@@ -1160,16 +1157,16 @@
         <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
         <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P3" t="s">
         <v>118</v>
@@ -1187,13 +1184,13 @@
         <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V3" t="s">
         <v>117</v>
       </c>
       <c r="W3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X3" t="s">
         <v>116</v>
@@ -1205,16 +1202,16 @@
         <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC3" t="s">
         <v>118</v>
       </c>
       <c r="AD3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AE3" t="s">
         <v>116</v>
@@ -1237,16 +1234,16 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -1258,19 +1255,19 @@
         <v>116</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
         <v>117</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
         <v>116</v>
@@ -1279,19 +1276,19 @@
         <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="U4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V4" t="s">
         <v>126</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X4" t="s">
         <v>116</v>
@@ -1300,19 +1297,19 @@
         <v>116</v>
       </c>
       <c r="Z4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AD4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE4" t="s">
         <v>116</v>
@@ -1335,16 +1332,16 @@
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
         <v>116</v>
@@ -1356,7 +1353,7 @@
         <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M5" t="s">
         <v>127</v>
@@ -1380,16 +1377,16 @@
         <v>128</v>
       </c>
       <c r="T5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="V5" t="s">
         <v>128</v>
       </c>
       <c r="W5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="X5" t="s">
         <v>116</v>
@@ -1398,19 +1395,19 @@
         <v>116</v>
       </c>
       <c r="Z5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AC5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE5" t="s">
         <v>116</v>
@@ -1433,82 +1430,82 @@
         <v>116</v>
       </c>
       <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
+      <c r="V6" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="s">
         <v>121</v>
       </c>
-      <c r="H6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="AA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB6" t="s">
         <v>122</v>
       </c>
-      <c r="M6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T6" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" t="s">
-        <v>117</v>
-      </c>
-      <c r="V6" t="s">
-        <v>121</v>
-      </c>
-      <c r="W6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>123</v>
-      </c>
       <c r="AC6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AD6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
         <v>116</v>
@@ -1531,82 +1528,82 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
         <v>117</v>
       </c>
-      <c r="I7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s">
-        <v>122</v>
-      </c>
       <c r="N7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" t="s">
+        <v>118</v>
+      </c>
+      <c r="W7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7" t="s">
         <v>117</v>
       </c>
-      <c r="P7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" t="s">
-        <v>116</v>
-      </c>
-      <c r="S7" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" t="s">
-        <v>119</v>
-      </c>
-      <c r="U7" t="s">
-        <v>122</v>
-      </c>
-      <c r="V7" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>119</v>
-      </c>
       <c r="AB7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE7" t="s">
         <v>116</v>
@@ -1629,7 +1626,7 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>118</v>
@@ -1638,43 +1635,43 @@
         <v>118</v>
       </c>
       <c r="H8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8" t="s">
-        <v>116</v>
-      </c>
-      <c r="S8" t="s">
-        <v>118</v>
-      </c>
       <c r="T8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U8" t="s">
         <v>118</v>
@@ -1683,7 +1680,7 @@
         <v>118</v>
       </c>
       <c r="W8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X8" t="s">
         <v>116</v>
@@ -1695,10 +1692,10 @@
         <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC8" t="s">
         <v>118</v>
@@ -1727,13 +1724,13 @@
         <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
@@ -1751,16 +1748,16 @@
         <v>118</v>
       </c>
       <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="N9" t="s">
-        <v>118</v>
-      </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="s">
         <v>116</v>
@@ -1772,7 +1769,7 @@
         <v>118</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U9" t="s">
         <v>118</v>
@@ -1781,7 +1778,7 @@
         <v>118</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
         <v>116</v>
@@ -1793,16 +1790,16 @@
         <v>118</v>
       </c>
       <c r="AA9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC9" t="s">
         <v>118</v>
       </c>
       <c r="AD9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE9" t="s">
         <v>116</v>
@@ -1825,82 +1822,82 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" t="s">
+      <c r="W10" t="s">
         <v>122</v>
       </c>
-      <c r="I10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s">
-        <v>116</v>
-      </c>
-      <c r="S10" t="s">
-        <v>119</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z10" t="s">
         <v>122</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AA10" t="s">
         <v>122</v>
-      </c>
-      <c r="V10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W10" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>123</v>
       </c>
       <c r="AB10" t="s">
         <v>121</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE10" t="s">
         <v>116</v>
@@ -1923,61 +1920,61 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>122</v>
-      </c>
       <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" t="s">
-        <v>119</v>
-      </c>
       <c r="T11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
         <v>116</v>
@@ -1989,16 +1986,16 @@
         <v>121</v>
       </c>
       <c r="AA11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AD11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AE11" t="s">
         <v>116</v>
@@ -2021,16 +2018,16 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
         <v>116</v>
@@ -2042,19 +2039,19 @@
         <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
         <v>118</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q12" t="s">
         <v>116</v>
@@ -2066,16 +2063,16 @@
         <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="V12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s">
         <v>116</v>
@@ -2084,19 +2081,19 @@
         <v>116</v>
       </c>
       <c r="Z12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA12" t="s">
         <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC12" t="s">
         <v>118</v>
       </c>
       <c r="AD12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AE12" t="s">
         <v>116</v>
@@ -2119,16 +2116,16 @@
         <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
         <v>116</v>
@@ -2140,19 +2137,19 @@
         <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q13" t="s">
         <v>116</v>
@@ -2161,19 +2158,19 @@
         <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="V13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s">
         <v>116</v>
@@ -2182,19 +2179,19 @@
         <v>116</v>
       </c>
       <c r="Z13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AA13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AC13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE13" t="s">
         <v>116</v>
@@ -2217,16 +2214,16 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
         <v>116</v>
@@ -2238,41 +2235,41 @@
         <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" t="s">
+        <v>116</v>
+      </c>
+      <c r="S14" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W14" t="s">
         <v>117</v>
       </c>
-      <c r="P14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>116</v>
-      </c>
-      <c r="R14" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" t="s">
-        <v>122</v>
-      </c>
-      <c r="V14" t="s">
-        <v>119</v>
-      </c>
-      <c r="W14" t="s">
-        <v>122</v>
-      </c>
       <c r="X14" t="s">
         <v>116</v>
       </c>
@@ -2280,19 +2277,19 @@
         <v>116</v>
       </c>
       <c r="Z14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC14" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>121</v>
-      </c>
       <c r="AD14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE14" t="s">
         <v>116</v>
@@ -2315,17 +2312,17 @@
         <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
       <c r="I15" t="s">
         <v>116</v>
       </c>
@@ -2336,61 +2333,61 @@
         <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U15" t="s">
         <v>121</v>
       </c>
-      <c r="N15" t="s">
+      <c r="V15" t="s">
+        <v>123</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" t="s">
         <v>121</v>
       </c>
-      <c r="O15" t="s">
-        <v>121</v>
-      </c>
-      <c r="P15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>117</v>
-      </c>
-      <c r="V15" t="s">
-        <v>122</v>
-      </c>
-      <c r="W15" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>122</v>
-      </c>
       <c r="AA15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AC15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE15" t="s">
         <v>116</v>
@@ -2413,16 +2410,16 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
         <v>116</v>
@@ -2434,19 +2431,19 @@
         <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
         <v>116</v>
@@ -2455,19 +2452,19 @@
         <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="V16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -2476,19 +2473,19 @@
         <v>116</v>
       </c>
       <c r="Z16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE16" t="s">
         <v>116</v>
@@ -2511,16 +2508,16 @@
         <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>116</v>
@@ -2532,7 +2529,7 @@
         <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
         <v>129</v>
@@ -2553,19 +2550,19 @@
         <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="U17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X17" t="s">
         <v>116</v>
@@ -2574,13 +2571,13 @@
         <v>116</v>
       </c>
       <c r="Z17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA17" t="s">
         <v>129</v>
       </c>
       <c r="AB17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AC17" t="s">
         <v>129</v>
@@ -2609,61 +2606,61 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
       </c>
       <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R18" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" t="s">
         <v>122</v>
       </c>
-      <c r="I18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>116</v>
-      </c>
-      <c r="R18" t="s">
-        <v>116</v>
-      </c>
-      <c r="S18" t="s">
-        <v>117</v>
-      </c>
-      <c r="T18" t="s">
-        <v>123</v>
-      </c>
       <c r="U18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X18" t="s">
         <v>116</v>
@@ -2672,16 +2669,16 @@
         <v>116</v>
       </c>
       <c r="Z18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB18" t="s">
         <v>121</v>
       </c>
-      <c r="AA18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>117</v>
-      </c>
       <c r="AC18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AD18" t="s">
         <v>117</v>
@@ -2710,79 +2707,79 @@
         <v>117</v>
       </c>
       <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" t="s">
+        <v>126</v>
+      </c>
+      <c r="T19" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" t="s">
+        <v>126</v>
+      </c>
+      <c r="W19" t="s">
+        <v>126</v>
+      </c>
+      <c r="X19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC19" t="s">
         <v>122</v>
       </c>
-      <c r="G19" t="s">
+      <c r="AD19" t="s">
         <v>122</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" t="s">
-        <v>126</v>
-      </c>
-      <c r="M19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O19" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" t="s">
-        <v>124</v>
-      </c>
-      <c r="T19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>119</v>
-      </c>
-      <c r="V19" t="s">
-        <v>122</v>
-      </c>
-      <c r="W19" t="s">
-        <v>124</v>
-      </c>
-      <c r="X19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>123</v>
       </c>
       <c r="AE19" t="s">
         <v>116</v>
@@ -2805,10 +2802,10 @@
         <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -2826,16 +2823,16 @@
         <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P20" t="s">
         <v>118</v>
@@ -2850,31 +2847,31 @@
         <v>118</v>
       </c>
       <c r="T20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="V20" t="s">
+        <v>118</v>
+      </c>
+      <c r="W20" t="s">
+        <v>118</v>
+      </c>
+      <c r="X20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB20" t="s">
         <v>117</v>
-      </c>
-      <c r="W20" t="s">
-        <v>118</v>
-      </c>
-      <c r="X20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>118</v>
       </c>
       <c r="AC20" t="s">
         <v>118</v>
@@ -2906,79 +2903,79 @@
         <v>121</v>
       </c>
       <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" t="s">
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" t="s">
+        <v>126</v>
+      </c>
+      <c r="T21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" t="s">
         <v>121</v>
       </c>
-      <c r="H21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N21" t="s">
-        <v>119</v>
-      </c>
-      <c r="O21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>116</v>
-      </c>
-      <c r="R21" t="s">
-        <v>116</v>
-      </c>
-      <c r="S21" t="s">
-        <v>121</v>
-      </c>
-      <c r="T21" t="s">
-        <v>121</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
+        <v>126</v>
+      </c>
+      <c r="W21" t="s">
+        <v>126</v>
+      </c>
+      <c r="X21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="V21" t="s">
-        <v>121</v>
-      </c>
-      <c r="W21" t="s">
-        <v>121</v>
-      </c>
-      <c r="X21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>122</v>
-      </c>
       <c r="AD21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="s">
         <v>116</v>
@@ -3001,16 +2998,16 @@
         <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
         <v>116</v>
@@ -3022,61 +3019,61 @@
         <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N22" t="s">
         <v>121</v>
       </c>
       <c r="O22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" t="s">
+        <v>126</v>
+      </c>
+      <c r="U22" t="s">
+        <v>126</v>
+      </c>
+      <c r="V22" t="s">
+        <v>126</v>
+      </c>
+      <c r="W22" t="s">
+        <v>117</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB22" t="s">
         <v>122</v>
       </c>
-      <c r="P22" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>116</v>
-      </c>
-      <c r="R22" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AC22" t="s">
         <v>122</v>
       </c>
-      <c r="T22" t="s">
-        <v>117</v>
-      </c>
-      <c r="U22" t="s">
-        <v>124</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="AD22" t="s">
         <v>122</v>
-      </c>
-      <c r="W22" t="s">
-        <v>124</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>123</v>
       </c>
       <c r="AE22" t="s">
         <v>116</v>
@@ -3099,16 +3096,16 @@
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
         <v>116</v>
@@ -3123,58 +3120,58 @@
         <v>121</v>
       </c>
       <c r="M23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" t="s">
+        <v>116</v>
+      </c>
+      <c r="S23" t="s">
+        <v>118</v>
+      </c>
+      <c r="T23" t="s">
         <v>121</v>
       </c>
-      <c r="N23" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>116</v>
-      </c>
-      <c r="R23" t="s">
-        <v>116</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>122</v>
       </c>
-      <c r="T23" t="s">
-        <v>122</v>
-      </c>
-      <c r="U23" t="s">
-        <v>123</v>
-      </c>
       <c r="V23" t="s">
+        <v>118</v>
+      </c>
+      <c r="W23" t="s">
+        <v>118</v>
+      </c>
+      <c r="X23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB23" t="s">
         <v>117</v>
       </c>
-      <c r="W23" t="s">
-        <v>122</v>
-      </c>
-      <c r="X23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>121</v>
-      </c>
       <c r="AC23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AD23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE23" t="s">
         <v>116</v>
@@ -3200,13 +3197,13 @@
         <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
         <v>116</v>
@@ -3221,16 +3218,16 @@
         <v>127</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q24" t="s">
         <v>116</v>
@@ -3242,16 +3239,16 @@
         <v>127</v>
       </c>
       <c r="T24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W24" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="X24" t="s">
         <v>116</v>
@@ -3269,7 +3266,7 @@
         <v>118</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
         <v>118</v>
@@ -3295,16 +3292,16 @@
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
         <v>116</v>
@@ -3316,61 +3313,61 @@
         <v>116</v>
       </c>
       <c r="L25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>116</v>
+      </c>
+      <c r="R25" t="s">
+        <v>116</v>
+      </c>
+      <c r="S25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" t="s">
+        <v>118</v>
+      </c>
+      <c r="U25" t="s">
+        <v>126</v>
+      </c>
+      <c r="V25" t="s">
+        <v>118</v>
+      </c>
+      <c r="W25" t="s">
+        <v>118</v>
+      </c>
+      <c r="X25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z25" t="s">
         <v>117</v>
       </c>
-      <c r="M25" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O25" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>116</v>
-      </c>
-      <c r="R25" t="s">
-        <v>116</v>
-      </c>
-      <c r="S25" t="s">
-        <v>119</v>
-      </c>
-      <c r="T25" t="s">
-        <v>122</v>
-      </c>
-      <c r="U25" t="s">
-        <v>122</v>
-      </c>
-      <c r="V25" t="s">
-        <v>122</v>
-      </c>
-      <c r="W25" t="s">
-        <v>122</v>
-      </c>
-      <c r="X25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>121</v>
-      </c>
       <c r="AA25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AB25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AE25" t="s">
         <v>116</v>
@@ -3396,13 +3393,13 @@
         <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
         <v>116</v>
@@ -3414,19 +3411,19 @@
         <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q26" t="s">
         <v>116</v>
@@ -3435,19 +3432,19 @@
         <v>116</v>
       </c>
       <c r="S26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="U26" t="s">
         <v>117</v>
       </c>
       <c r="V26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="X26" t="s">
         <v>116</v>
@@ -3456,19 +3453,19 @@
         <v>116</v>
       </c>
       <c r="Z26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AC26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AD26" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AE26" t="s">
         <v>116</v>
@@ -3491,82 +3488,82 @@
         <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" t="s">
+        <v>121</v>
+      </c>
+      <c r="T27" t="s">
+        <v>118</v>
+      </c>
+      <c r="U27" t="s">
+        <v>126</v>
+      </c>
+      <c r="V27" t="s">
+        <v>118</v>
+      </c>
+      <c r="W27" t="s">
+        <v>118</v>
+      </c>
+      <c r="X27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z27" t="s">
         <v>117</v>
       </c>
-      <c r="H27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" t="s">
-        <v>117</v>
-      </c>
-      <c r="M27" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27" t="s">
-        <v>119</v>
-      </c>
-      <c r="T27" t="s">
-        <v>118</v>
-      </c>
-      <c r="U27" t="s">
-        <v>118</v>
-      </c>
-      <c r="V27" t="s">
-        <v>118</v>
-      </c>
-      <c r="W27" t="s">
-        <v>118</v>
-      </c>
-      <c r="X27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>118</v>
-      </c>
       <c r="AA27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AC27" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AD27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AE27" t="s">
         <v>116</v>
@@ -3589,16 +3586,16 @@
         <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s">
         <v>116</v>
@@ -3610,19 +3607,19 @@
         <v>116</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O28" t="s">
         <v>121</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q28" t="s">
         <v>116</v>
@@ -3631,40 +3628,40 @@
         <v>116</v>
       </c>
       <c r="S28" t="s">
+        <v>126</v>
+      </c>
+      <c r="T28" t="s">
+        <v>123</v>
+      </c>
+      <c r="U28" t="s">
+        <v>123</v>
+      </c>
+      <c r="V28" t="s">
+        <v>117</v>
+      </c>
+      <c r="W28" t="s">
+        <v>126</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC28" t="s">
         <v>121</v>
       </c>
-      <c r="T28" t="s">
-        <v>121</v>
-      </c>
-      <c r="U28" t="s">
-        <v>121</v>
-      </c>
-      <c r="V28" t="s">
-        <v>119</v>
-      </c>
-      <c r="W28" t="s">
-        <v>121</v>
-      </c>
-      <c r="X28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>122</v>
-      </c>
       <c r="AD28" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="s">
         <v>116</v>
@@ -3687,16 +3684,16 @@
         <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>116</v>
@@ -3708,13 +3705,13 @@
         <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O29" t="s">
         <v>118</v>
@@ -3735,13 +3732,13 @@
         <v>117</v>
       </c>
       <c r="U29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W29" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X29" t="s">
         <v>116</v>
@@ -3756,13 +3753,13 @@
         <v>118</v>
       </c>
       <c r="AB29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AC29" t="s">
         <v>118</v>
       </c>
       <c r="AD29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AE29" t="s">
         <v>116</v>
@@ -3785,82 +3782,82 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" t="s">
+        <v>121</v>
+      </c>
+      <c r="T30" t="s">
+        <v>122</v>
+      </c>
+      <c r="U30" t="s">
+        <v>123</v>
+      </c>
+      <c r="V30" t="s">
+        <v>123</v>
+      </c>
+      <c r="W30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
-      <c r="H30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" t="s">
-        <v>118</v>
-      </c>
-      <c r="N30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P30" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>116</v>
-      </c>
-      <c r="R30" t="s">
-        <v>116</v>
-      </c>
-      <c r="S30" t="s">
-        <v>119</v>
-      </c>
-      <c r="T30" t="s">
-        <v>123</v>
-      </c>
-      <c r="U30" t="s">
-        <v>122</v>
-      </c>
-      <c r="V30" t="s">
-        <v>118</v>
-      </c>
-      <c r="W30" t="s">
-        <v>118</v>
-      </c>
-      <c r="X30" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>118</v>
-      </c>
       <c r="AA30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AC30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AD30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE30" t="s">
         <v>116</v>
@@ -3883,16 +3880,16 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
         <v>116</v>
@@ -3907,16 +3904,16 @@
         <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q31" t="s">
         <v>116</v>
@@ -3925,16 +3922,16 @@
         <v>116</v>
       </c>
       <c r="S31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="U31" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="V31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="W31" t="s">
         <v>127</v>
@@ -3949,16 +3946,16 @@
         <v>129</v>
       </c>
       <c r="AA31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE31" t="s">
         <v>116</v>
@@ -3981,61 +3978,61 @@
         <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>116</v>
+      </c>
+      <c r="R32" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" t="s">
+        <v>123</v>
+      </c>
+      <c r="U32" t="s">
         <v>121</v>
       </c>
-      <c r="H32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" t="s">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P32" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>116</v>
-      </c>
-      <c r="R32" t="s">
-        <v>116</v>
-      </c>
-      <c r="S32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T32" t="s">
-        <v>118</v>
-      </c>
-      <c r="U32" t="s">
-        <v>117</v>
-      </c>
       <c r="V32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W32" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X32" t="s">
         <v>116</v>
@@ -4044,19 +4041,19 @@
         <v>116</v>
       </c>
       <c r="Z32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB32" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AC32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AD32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE32" t="s">
         <v>116</v>
@@ -4121,19 +4118,19 @@
         <v>116</v>
       </c>
       <c r="S33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W33" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="X33" t="s">
         <v>116</v>
@@ -4177,16 +4174,16 @@
         <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
         <v>116</v>
@@ -4198,19 +4195,19 @@
         <v>116</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q34" t="s">
         <v>116</v>
@@ -4219,40 +4216,40 @@
         <v>116</v>
       </c>
       <c r="S34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="T34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="V34" t="s">
+        <v>126</v>
+      </c>
+      <c r="W34" t="s">
+        <v>126</v>
+      </c>
+      <c r="X34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC34" t="s">
         <v>117</v>
       </c>
-      <c r="W34" t="s">
-        <v>121</v>
-      </c>
-      <c r="X34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>119</v>
-      </c>
       <c r="AD34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="s">
         <v>116</v>
@@ -4275,16 +4272,16 @@
         <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
         <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I35" t="s">
         <v>116</v>
@@ -4296,19 +4293,19 @@
         <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M35" t="s">
         <v>121</v>
       </c>
       <c r="N35" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q35" t="s">
         <v>116</v>
@@ -4320,16 +4317,16 @@
         <v>117</v>
       </c>
       <c r="T35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U35" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X35" t="s">
         <v>116</v>
@@ -4338,19 +4335,19 @@
         <v>116</v>
       </c>
       <c r="Z35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AA35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AD35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE35" t="s">
         <v>116</v>
@@ -4376,13 +4373,13 @@
         <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" t="s">
         <v>116</v>
@@ -4394,19 +4391,19 @@
         <v>116</v>
       </c>
       <c r="L36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="s">
         <v>117</v>
-      </c>
-      <c r="P36" t="s">
-        <v>118</v>
       </c>
       <c r="Q36" t="s">
         <v>116</v>
@@ -4418,16 +4415,16 @@
         <v>129</v>
       </c>
       <c r="T36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="X36" t="s">
         <v>116</v>
@@ -4439,16 +4436,16 @@
         <v>127</v>
       </c>
       <c r="AA36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AB36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AD36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AE36" t="s">
         <v>116</v>
@@ -4471,82 +4468,82 @@
         <v>116</v>
       </c>
       <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" t="s">
+        <v>126</v>
+      </c>
+      <c r="P37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" t="s">
+      <c r="Q37" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S37" t="s">
+        <v>123</v>
+      </c>
+      <c r="T37" t="s">
+        <v>123</v>
+      </c>
+      <c r="U37" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" t="s">
         <v>121</v>
       </c>
-      <c r="G37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="W37" t="s">
+        <v>123</v>
+      </c>
+      <c r="X37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC37" t="s">
         <v>121</v>
       </c>
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" t="s">
-        <v>121</v>
-      </c>
-      <c r="M37" t="s">
-        <v>121</v>
-      </c>
-      <c r="N37" t="s">
-        <v>121</v>
-      </c>
-      <c r="O37" t="s">
-        <v>121</v>
-      </c>
-      <c r="P37" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" t="s">
-        <v>116</v>
-      </c>
-      <c r="S37" t="s">
-        <v>121</v>
-      </c>
-      <c r="T37" t="s">
-        <v>121</v>
-      </c>
-      <c r="U37" t="s">
-        <v>121</v>
-      </c>
-      <c r="V37" t="s">
-        <v>119</v>
-      </c>
-      <c r="W37" t="s">
-        <v>121</v>
-      </c>
-      <c r="X37" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>119</v>
-      </c>
       <c r="AD37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE37" t="s">
         <v>116</v>
@@ -4569,16 +4566,16 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I38" t="s">
         <v>116</v>
@@ -4590,40 +4587,40 @@
         <v>116</v>
       </c>
       <c r="L38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M38" t="s">
         <v>117</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>116</v>
+      </c>
+      <c r="R38" t="s">
+        <v>116</v>
+      </c>
+      <c r="S38" t="s">
         <v>117</v>
       </c>
-      <c r="P38" t="s">
+      <c r="T38" t="s">
         <v>122</v>
       </c>
-      <c r="Q38" t="s">
-        <v>116</v>
-      </c>
-      <c r="R38" t="s">
-        <v>116</v>
-      </c>
-      <c r="S38" t="s">
-        <v>126</v>
-      </c>
-      <c r="T38" t="s">
-        <v>123</v>
-      </c>
       <c r="U38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X38" t="s">
         <v>116</v>
@@ -4632,19 +4629,19 @@
         <v>116</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AA38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC38" t="s">
         <v>117</v>
       </c>
-      <c r="AC38" t="s">
-        <v>121</v>
-      </c>
       <c r="AD38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE38" t="s">
         <v>116</v>
@@ -4667,16 +4664,16 @@
         <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I39" t="s">
         <v>116</v>
@@ -4688,61 +4685,61 @@
         <v>116</v>
       </c>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N39" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39" t="s">
+        <v>126</v>
+      </c>
+      <c r="T39" t="s">
+        <v>126</v>
+      </c>
+      <c r="U39" t="s">
+        <v>126</v>
+      </c>
+      <c r="V39" t="s">
+        <v>126</v>
+      </c>
+      <c r="W39" t="s">
         <v>121</v>
       </c>
-      <c r="O39" t="s">
-        <v>121</v>
-      </c>
-      <c r="P39" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" t="s">
-        <v>116</v>
-      </c>
-      <c r="S39" t="s">
-        <v>124</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="X39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC39" t="s">
         <v>117</v>
       </c>
-      <c r="U39" t="s">
-        <v>122</v>
-      </c>
-      <c r="V39" t="s">
-        <v>122</v>
-      </c>
-      <c r="W39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X39" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>119</v>
-      </c>
       <c r="AD39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AE39" t="s">
         <v>116</v>
@@ -4765,16 +4762,16 @@
         <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
         <v>116</v>
@@ -4786,13 +4783,13 @@
         <v>116</v>
       </c>
       <c r="L40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" t="s">
         <v>118</v>
@@ -4807,19 +4804,19 @@
         <v>116</v>
       </c>
       <c r="S40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X40" t="s">
         <v>116</v>
@@ -4828,19 +4825,19 @@
         <v>116</v>
       </c>
       <c r="Z40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AD40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE40" t="s">
         <v>116</v>
@@ -4866,13 +4863,13 @@
         <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
         <v>116</v>
@@ -4884,34 +4881,34 @@
         <v>116</v>
       </c>
       <c r="L41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s">
         <v>118</v>
       </c>
       <c r="N41" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" t="s">
+        <v>116</v>
+      </c>
+      <c r="S41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" t="s">
         <v>117</v>
       </c>
-      <c r="O41" t="s">
-        <v>118</v>
-      </c>
-      <c r="P41" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" t="s">
-        <v>116</v>
-      </c>
-      <c r="S41" t="s">
-        <v>118</v>
-      </c>
-      <c r="T41" t="s">
-        <v>119</v>
-      </c>
       <c r="U41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="V41" t="s">
         <v>118</v>
@@ -4926,13 +4923,13 @@
         <v>116</v>
       </c>
       <c r="Z41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AC41" t="s">
         <v>118</v>
@@ -4961,16 +4958,16 @@
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
         <v>116</v>
@@ -4982,40 +4979,40 @@
         <v>116</v>
       </c>
       <c r="L42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
+        <v>126</v>
+      </c>
+      <c r="O42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" t="s">
+        <v>116</v>
+      </c>
+      <c r="S42" t="s">
+        <v>123</v>
+      </c>
+      <c r="T42" t="s">
         <v>117</v>
       </c>
-      <c r="O42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P42" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" t="s">
-        <v>116</v>
-      </c>
-      <c r="S42" t="s">
-        <v>122</v>
-      </c>
-      <c r="T42" t="s">
-        <v>122</v>
-      </c>
       <c r="U42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -5024,19 +5021,19 @@
         <v>116</v>
       </c>
       <c r="Z42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AA42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AC42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AD42" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AE42" t="s">
         <v>116</v>
@@ -5059,16 +5056,16 @@
         <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
         <v>116</v>
@@ -5080,40 +5077,40 @@
         <v>116</v>
       </c>
       <c r="L43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N43" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" t="s">
+        <v>127</v>
+      </c>
+      <c r="P43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" t="s">
+        <v>116</v>
+      </c>
+      <c r="S43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T43" t="s">
         <v>117</v>
       </c>
-      <c r="O43" t="s">
-        <v>122</v>
-      </c>
-      <c r="P43" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S43" t="s">
-        <v>124</v>
-      </c>
-      <c r="T43" t="s">
-        <v>122</v>
-      </c>
       <c r="U43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X43" t="s">
         <v>116</v>
@@ -5122,19 +5119,19 @@
         <v>116</v>
       </c>
       <c r="Z43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AA43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AE43" t="s">
         <v>116</v>
@@ -5265,34 +5262,34 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2">
-        <v>-2</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -5304,7 +5301,7 @@
         <v>116</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S2">
         <v>4</v>
@@ -5313,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
         <v>116</v>
@@ -5331,10 +5328,10 @@
         <v>5</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC2">
         <v>5</v>
@@ -5360,34 +5357,34 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
       <c r="L3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <v>7</v>
@@ -5399,7 +5396,7 @@
         <v>116</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <v>6</v>
@@ -5408,10 +5405,10 @@
         <v>9</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W3" t="s">
         <v>116</v>
@@ -5426,10 +5423,10 @@
         <v>7</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3">
         <v>5</v>
@@ -5455,34 +5452,34 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>9</v>
@@ -5494,7 +5491,7 @@
         <v>116</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>6</v>
@@ -5503,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
         <v>4</v>
-      </c>
-      <c r="V4">
-        <v>9</v>
       </c>
       <c r="W4" t="s">
         <v>116</v>
@@ -5521,10 +5518,10 @@
         <v>7</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC4">
         <v>7</v>
@@ -5550,13 +5547,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>116</v>
@@ -5568,16 +5565,16 @@
         <v>116</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>7</v>
@@ -5589,7 +5586,7 @@
         <v>116</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>6</v>
@@ -5598,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
         <v>116</v>
@@ -5616,10 +5613,10 @@
         <v>7</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC5">
         <v>5</v>
@@ -5645,13 +5642,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>116</v>
@@ -5663,16 +5660,16 @@
         <v>116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>8</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>7</v>
@@ -5684,7 +5681,7 @@
         <v>116</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -5693,10 +5690,10 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
         <v>116</v>
@@ -5711,10 +5708,10 @@
         <v>9</v>
       </c>
       <c r="AA6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -5740,7 +5737,7 @@
         <v>-9</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5758,7 +5755,7 @@
         <v>116</v>
       </c>
       <c r="K7">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -5767,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" t="s">
         <v>116</v>
@@ -5785,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="T7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W7" t="s">
         <v>116</v>
@@ -5803,16 +5800,16 @@
         <v>-6</v>
       </c>
       <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>4</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
       </c>
       <c r="AD7" t="s">
         <v>116</v>
@@ -5835,58 +5832,58 @@
         <v>-5</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
         <v>-2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>-1</v>
       </c>
-      <c r="G8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8">
+        <v>-4</v>
+      </c>
+      <c r="S8">
+        <v>-3</v>
+      </c>
+      <c r="T8">
+        <v>-2</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8">
-        <v>-5</v>
-      </c>
-      <c r="L8">
-        <v>-2</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8">
-        <v>-2</v>
-      </c>
-      <c r="S8">
-        <v>-1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8" t="s">
         <v>116</v>
@@ -5895,13 +5892,13 @@
         <v>116</v>
       </c>
       <c r="Y8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -5927,16 +5924,16 @@
         <v>116</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>116</v>
@@ -5948,16 +5945,16 @@
         <v>116</v>
       </c>
       <c r="K9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -5969,20 +5966,20 @@
         <v>116</v>
       </c>
       <c r="R9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
-      <c r="V9">
-        <v>-1</v>
-      </c>
       <c r="W9" t="s">
         <v>116</v>
       </c>
@@ -5990,19 +5987,19 @@
         <v>116</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z9">
         <v>2</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AD9" t="s">
         <v>116</v>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>116</v>
@@ -6043,7 +6040,7 @@
         <v>116</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -6064,7 +6061,7 @@
         <v>116</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -6073,11 +6070,11 @@
         <v>0</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>1</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10" t="s">
         <v>116</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -6117,16 +6114,16 @@
         <v>116</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>116</v>
@@ -6138,61 +6135,61 @@
         <v>116</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="P11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11">
-        <v>-2</v>
-      </c>
-      <c r="S11">
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
         <v>2</v>
       </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>9</v>
-      </c>
-      <c r="V11">
-        <v>-2</v>
-      </c>
-      <c r="W11" t="s">
-        <v>116</v>
-      </c>
-      <c r="X11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>4</v>
-      </c>
-      <c r="AA11">
-        <v>3</v>
-      </c>
       <c r="AB11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="s">
         <v>116</v>
@@ -6215,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -6236,16 +6233,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>7</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P12" t="s">
         <v>116</v>
@@ -6254,19 +6251,19 @@
         <v>116</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <v>6</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W12" t="s">
         <v>116</v>
@@ -6275,13 +6272,13 @@
         <v>116</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z12">
+        <v>9</v>
+      </c>
+      <c r="AA12">
         <v>7</v>
-      </c>
-      <c r="AA12">
-        <v>8</v>
       </c>
       <c r="AB12">
         <v>7</v>
@@ -6337,7 +6334,7 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -6432,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="N14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -6527,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="N15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15">
         <v>16</v>
@@ -6622,7 +6619,7 @@
         <v>10</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16">
         <v>13</v>
@@ -6690,7 +6687,7 @@
         <v>-3</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6708,7 +6705,7 @@
         <v>116</v>
       </c>
       <c r="K17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -6717,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
         <v>116</v>
@@ -6735,14 +6732,14 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
         <v>3</v>
       </c>
-      <c r="V17">
-        <v>7</v>
-      </c>
       <c r="W17" t="s">
         <v>116</v>
       </c>
@@ -6753,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -6762,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="AC17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="s">
         <v>116</v>
@@ -6785,7 +6782,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -6803,7 +6800,7 @@
         <v>116</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -6812,10 +6809,10 @@
         <v>7</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P18" t="s">
         <v>116</v>
@@ -6830,13 +6827,13 @@
         <v>8</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W18" t="s">
         <v>116</v>
@@ -6848,7 +6845,7 @@
         <v>8</v>
       </c>
       <c r="Z18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA18">
         <v>7</v>
@@ -6857,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="AC18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="s">
         <v>116</v>
@@ -6880,7 +6877,7 @@
         <v>-6</v>
       </c>
       <c r="E19">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F19">
         <v>-5</v>
@@ -6898,7 +6895,7 @@
         <v>116</v>
       </c>
       <c r="K19">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="L19">
         <v>-6</v>
@@ -6907,10 +6904,10 @@
         <v>-6</v>
       </c>
       <c r="N19">
+        <v>-4</v>
+      </c>
+      <c r="O19">
         <v>-6</v>
-      </c>
-      <c r="O19">
-        <v>-4</v>
       </c>
       <c r="P19" t="s">
         <v>116</v>
@@ -6925,13 +6922,13 @@
         <v>-6</v>
       </c>
       <c r="T19">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="U19">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="V19">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="W19" t="s">
         <v>116</v>
@@ -6943,7 +6940,7 @@
         <v>-8</v>
       </c>
       <c r="Z19">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AA19">
         <v>-7</v>
@@ -6952,7 +6949,7 @@
         <v>-4</v>
       </c>
       <c r="AC19">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AD19" t="s">
         <v>116</v>
@@ -6975,7 +6972,7 @@
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -6993,7 +6990,7 @@
         <v>116</v>
       </c>
       <c r="K20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L20">
         <v>-3</v>
@@ -7002,10 +6999,10 @@
         <v>-1</v>
       </c>
       <c r="N20">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P20" t="s">
         <v>116</v>
@@ -7020,13 +7017,13 @@
         <v>-3</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V20">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="W20" t="s">
         <v>116</v>
@@ -7038,7 +7035,7 @@
         <v>-3</v>
       </c>
       <c r="Z20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AA20">
         <v>-2</v>
@@ -7047,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AD20" t="s">
         <v>116</v>
@@ -7070,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -7088,7 +7085,7 @@
         <v>116</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -7097,10 +7094,10 @@
         <v>-2</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>-2</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
       </c>
       <c r="P21" t="s">
         <v>116</v>
@@ -7115,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V21">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="W21" t="s">
         <v>116</v>
@@ -7133,7 +7130,7 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-3</v>
@@ -7142,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="s">
         <v>116</v>
@@ -7165,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -7183,7 +7180,7 @@
         <v>116</v>
       </c>
       <c r="K22">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -7192,10 +7189,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P22" t="s">
         <v>116</v>
@@ -7210,13 +7207,13 @@
         <v>1</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V22">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="W22" t="s">
         <v>116</v>
@@ -7228,7 +7225,7 @@
         <v>-2</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -7237,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD22" t="s">
         <v>116</v>
@@ -7260,7 +7257,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7278,7 +7275,7 @@
         <v>116</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -7287,10 +7284,10 @@
         <v>-1</v>
       </c>
       <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
         <v>1</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
       </c>
       <c r="P23" t="s">
         <v>116</v>
@@ -7305,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W23" t="s">
         <v>116</v>
@@ -7323,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>-2</v>
@@ -7332,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="s">
         <v>116</v>
@@ -7355,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7373,7 +7370,7 @@
         <v>116</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -7382,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
         <v>116</v>
@@ -7400,13 +7397,13 @@
         <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W24" t="s">
         <v>116</v>
@@ -7418,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -7427,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="s">
         <v>116</v>
@@ -7450,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -7468,7 +7465,7 @@
         <v>116</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -7477,10 +7474,10 @@
         <v>2</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
         <v>116</v>
@@ -7495,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>3</v>
-      </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>-1</v>
       </c>
       <c r="W25" t="s">
         <v>116</v>
@@ -7513,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -7522,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="s">
         <v>116</v>
@@ -7647,13 +7644,13 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -7698,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -7724,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7757,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -7804,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -7858,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -7946,79 +7943,79 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
+      <c r="X6">
         <v>1</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -8044,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8098,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -8124,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -8178,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -8237,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -8252,13 +8249,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -8317,16 +8314,16 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -8338,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -8346,7 +8343,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8364,16 +8361,16 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>1</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -8418,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -8444,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -8498,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -8521,11 +8518,11 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -8551,26 +8548,26 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
       <c r="X13">
         <v>0</v>
       </c>
@@ -8578,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -8601,64 +8598,64 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>4</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -8687,58 +8684,58 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>5</v>
-      </c>
       <c r="U15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -8764,16 +8761,16 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -8818,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -8877,10 +8874,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -8898,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -8924,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8978,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -9087,46 +9084,46 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
         <v>2</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>5</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -9138,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -9155,25 +9152,25 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9191,34 +9188,34 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T21">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9244,7 +9241,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0499001996007984</v>
+        <v>0.05189620758483034</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9260,7 +9257,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.01464435146443515</v>
+        <v>0.01255230125523013</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9276,7 +9273,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0718562874251497</v>
+        <v>0.07784431137724551</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9284,7 +9281,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02466367713004484</v>
+        <v>0.02242152466367713</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9292,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.02301255230125523</v>
+        <v>0.02092050209205021</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9300,7 +9297,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02797202797202797</v>
+        <v>0.009324009324009324</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9308,7 +9305,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0138568129330254</v>
+        <v>0.03233256351039261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9316,7 +9313,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0658682634730539</v>
+        <v>0.06986027944111776</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9324,7 +9321,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02242152466367713</v>
+        <v>0.02690582959641256</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9332,7 +9329,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02092050209205021</v>
+        <v>0.02928870292887029</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9340,7 +9337,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01165501165501166</v>
+        <v>0.03962703962703962</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9348,7 +9345,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.05311778290993072</v>
+        <v>0.009237875288683603</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9356,7 +9353,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.05189620758483034</v>
+        <v>0.05588822355289421</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9364,7 +9361,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.02242152466367713</v>
+        <v>0.0179372197309417</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9372,7 +9369,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.03765690376569038</v>
+        <v>0.03556485355648536</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9388,7 +9385,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.02771362586605081</v>
+        <v>0.03926096997690531</v>
       </c>
     </row>
   </sheetData>
@@ -9438,7 +9435,7 @@
         <v>134</v>
       </c>
       <c r="B5">
-        <v>0.001988071570576541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9454,7 +9451,7 @@
         <v>136</v>
       </c>
       <c r="B7">
-        <v>0.06903765690376569</v>
+        <v>0.06276150627615062</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9462,7 +9459,7 @@
         <v>137</v>
       </c>
       <c r="B8">
-        <v>0.08132530120481928</v>
+        <v>0.0783132530120482</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9470,7 +9467,7 @@
         <v>138</v>
       </c>
       <c r="B9">
-        <v>0.02507836990595611</v>
+        <v>0.04075235109717868</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9478,7 +9475,7 @@
         <v>139</v>
       </c>
       <c r="B10">
-        <v>0.002762430939226519</v>
+        <v>0.008287292817679558</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9486,7 +9483,7 @@
         <v>140</v>
       </c>
       <c r="B11">
-        <v>0.0179372197309417</v>
+        <v>0.006726457399103139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9534,7 +9531,7 @@
         <v>146</v>
       </c>
       <c r="B17">
-        <v>0.01594533029612756</v>
+        <v>0.01138952164009112</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9550,7 +9547,7 @@
         <v>148</v>
       </c>
       <c r="B19">
-        <v>0.3814432989690721</v>
+        <v>0.3883161512027491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9558,7 +9555,7 @@
         <v>149</v>
       </c>
       <c r="B20">
-        <v>0.1705069124423963</v>
+        <v>0.1797235023041475</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9566,7 +9563,7 @@
         <v>150</v>
       </c>
       <c r="B21">
-        <v>0.08717948717948718</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9574,7 +9571,7 @@
         <v>151</v>
       </c>
       <c r="B22">
-        <v>0.06285714285714286</v>
+        <v>0.07428571428571429</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9582,7 +9579,7 @@
         <v>152</v>
       </c>
       <c r="B23">
-        <v>0.02409638554216868</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9590,7 +9587,7 @@
         <v>153</v>
       </c>
       <c r="B24">
-        <v>0.02890173410404624</v>
+        <v>0.03468208092485549</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9598,7 +9595,7 @@
         <v>154</v>
       </c>
       <c r="B25">
-        <v>0.006896551724137931</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9681,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9723,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9947,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10045,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10073,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10115,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10257,13 +10254,13 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10274,16 +10271,16 @@
         <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10294,16 +10291,16 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10314,16 +10311,16 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
         <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10334,16 +10331,16 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10354,16 +10351,16 @@
         <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10374,16 +10371,16 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10394,16 +10391,16 @@
         <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10414,16 +10411,16 @@
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
         <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10434,16 +10431,16 @@
         <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10457,13 +10454,13 @@
         <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10474,16 +10471,16 @@
         <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
         <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10494,16 +10491,16 @@
         <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10514,16 +10511,16 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10534,16 +10531,16 @@
         <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10554,16 +10551,16 @@
         <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10574,16 +10571,16 @@
         <v>160</v>
       </c>
       <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
         <v>169</v>
-      </c>
-      <c r="D18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10594,16 +10591,16 @@
         <v>160</v>
       </c>
       <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10614,16 +10611,16 @@
         <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10634,16 +10631,16 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10654,16 +10651,16 @@
         <v>160</v>
       </c>
       <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
         <v>169</v>
       </c>
-      <c r="D22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10674,13 +10671,13 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
         <v>161</v>
@@ -10694,16 +10691,16 @@
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10714,16 +10711,16 @@
         <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10734,16 +10731,16 @@
         <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10754,16 +10751,16 @@
         <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
         <v>162</v>
-      </c>
-      <c r="F27" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10774,16 +10771,16 @@
         <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10794,16 +10791,16 @@
         <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10814,16 +10811,16 @@
         <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10834,16 +10831,16 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10854,16 +10851,16 @@
         <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10874,16 +10871,16 @@
         <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10894,16 +10891,16 @@
         <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10914,16 +10911,16 @@
         <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10934,16 +10931,16 @@
         <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
         <v>162</v>
       </c>
       <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="s">
         <v>166</v>
-      </c>
-      <c r="F36" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10954,16 +10951,16 @@
         <v>160</v>
       </c>
       <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" t="s">
         <v>165</v>
       </c>
-      <c r="D37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10974,16 +10971,16 @@
         <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
         <v>166</v>
       </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10994,16 +10991,16 @@
         <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -11014,16 +11011,16 @@
         <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -11034,16 +11031,16 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -11054,16 +11051,16 @@
         <v>160</v>
       </c>
       <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -11074,16 +11071,16 @@
         <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
